--- a/pinginator/output_sample.xlsx
+++ b/pinginator/output_sample.xlsx
@@ -20,29 +20,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
   <si>
-    <t xml:space="preserve">hostname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+    <t xml:space="preserve">Hostname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanyName</t>
   </si>
   <si>
     <t xml:space="preserve">OS</t>
   </si>
   <si>
-    <t xml:space="preserve">MAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
     <t xml:space="preserve">DeviceType</t>
   </si>
   <si>
+    <t xml:space="preserve">SSID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title_URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page_Status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Http</t>
   </si>
   <si>
@@ -55,15 +70,18 @@
     <t xml:space="preserve">SMB</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dns</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rdp</t>
   </si>
   <si>
     <t xml:space="preserve">Ftp</t>
   </si>
   <si>
-    <t xml:space="preserve">Ssh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Telnet</t>
   </si>
   <si>
@@ -73,9 +91,6 @@
     <t xml:space="preserve">Vnc</t>
   </si>
   <si>
-    <t xml:space="preserve">Dns</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rshell</t>
   </si>
   <si>
@@ -97,70 +112,70 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">os_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">page_status</t>
+    <t xml:space="preserve">Coordinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.1.105</t>
   </si>
   <si>
-    <t xml:space="preserve">desktop2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90:0F:0C:1F:B7:69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Network Technology Singapore PTE.</t>
+    <t xml:space="preserve">Down?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6C:4B:B4:0E:8F:69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://192.168.1.254:80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success - 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2C:CF:67:95:A5:69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30:C5:99:5B:EE:69</t>
   </si>
   <si>
     <t xml:space="preserve">Windows</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.1.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desktop3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30:C5:99:5B:EE:69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C:CF:67:95:A5:69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6C:4B:B4:0E:8F:69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://192.168.1.254:80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT&amp;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success - 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.1.107</t>
+    <t xml:space="preserve">192.168.1.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600:1700:693e:10::69</t>
   </si>
   <si>
     <t xml:space="preserve">desktop1.attlocal.net</t>
@@ -207,19 +222,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -248,16 +256,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,347 +388,460 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="4.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="3.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="4.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="7.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="12.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="5.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="4.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="4.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="4.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="5.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="6.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="5.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="5.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>445</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="A2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="n">
-        <v>445</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="A4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>443</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="B5" s="0"/>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="K6" s="2" t="n">
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0" t="n">
         <v>445</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
